--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>240.0035996863973</v>
+        <v>361.299122163608</v>
       </c>
       <c r="R2">
-        <v>240.0035996863973</v>
+        <v>3251.692099472472</v>
       </c>
       <c r="S2">
-        <v>0.007758269415372161</v>
+        <v>0.01064471485261256</v>
       </c>
       <c r="T2">
-        <v>0.007758269415372161</v>
+        <v>0.01064471485261256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>770.8828498269054</v>
+        <v>887.5513831607725</v>
       </c>
       <c r="R3">
-        <v>770.8828498269054</v>
+        <v>7987.962448446953</v>
       </c>
       <c r="S3">
-        <v>0.02491927972939475</v>
+        <v>0.02614933392091126</v>
       </c>
       <c r="T3">
-        <v>0.02491927972939475</v>
+        <v>0.02614933392091126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>369.9471691752841</v>
+        <v>455.026436080358</v>
       </c>
       <c r="R4">
-        <v>369.9471691752841</v>
+        <v>4095.237924723222</v>
       </c>
       <c r="S4">
-        <v>0.01195877816693759</v>
+        <v>0.01340614013527161</v>
       </c>
       <c r="T4">
-        <v>0.01195877816693759</v>
+        <v>0.01340614013527161</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>4800.336765649075</v>
+        <v>6367.075168653748</v>
       </c>
       <c r="R5">
-        <v>4800.336765649075</v>
+        <v>57303.67651788374</v>
       </c>
       <c r="S5">
-        <v>0.1551739472286446</v>
+        <v>0.1875888853800705</v>
       </c>
       <c r="T5">
-        <v>0.1551739472286446</v>
+        <v>0.1875888853800706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>15418.5074343373</v>
+        <v>15641.07418469796</v>
       </c>
       <c r="R6">
-        <v>15418.5074343373</v>
+        <v>140769.6676622816</v>
       </c>
       <c r="S6">
-        <v>0.4984130855320963</v>
+        <v>0.4608225275711437</v>
       </c>
       <c r="T6">
-        <v>0.4984130855320963</v>
+        <v>0.4608225275711437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>7399.351509145577</v>
+        <v>8018.805871707374</v>
       </c>
       <c r="R7">
-        <v>7399.351509145577</v>
+        <v>72169.25284536637</v>
       </c>
       <c r="S7">
-        <v>0.239188756260332</v>
+        <v>0.236252724478327</v>
       </c>
       <c r="T7">
-        <v>0.239188756260332</v>
+        <v>0.236252724478327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>336.5267324076642</v>
+        <v>468.7922939543159</v>
       </c>
       <c r="R8">
-        <v>336.5267324076642</v>
+        <v>4219.130645588843</v>
       </c>
       <c r="S8">
-        <v>0.01087844123548572</v>
+        <v>0.0138117144164721</v>
       </c>
       <c r="T8">
-        <v>0.01087844123548572</v>
+        <v>0.0138117144164721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>1080.911648243332</v>
+        <v>1151.614336682089</v>
       </c>
       <c r="R9">
-        <v>1080.911648243332</v>
+        <v>10364.5290301388</v>
       </c>
       <c r="S9">
-        <v>0.03494115835030556</v>
+        <v>0.03392924444640721</v>
       </c>
       <c r="T9">
-        <v>0.03494115835030556</v>
+        <v>0.03392924444640721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>518.7301864167824</v>
+        <v>590.4052174346909</v>
       </c>
       <c r="R10">
-        <v>518.7301864167824</v>
+        <v>5313.646956912218</v>
       </c>
       <c r="S10">
-        <v>0.01676828408143129</v>
+        <v>0.01739471479878406</v>
       </c>
       <c r="T10">
-        <v>0.01676828408143129</v>
+        <v>0.01739471479878406</v>
       </c>
     </row>
   </sheetData>
